--- a/coordinate images/solution.xlsx
+++ b/coordinate images/solution.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmjerred-adm\Documents\GitHub\pick-point\coordinate images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72190B66-292A-44DE-843C-45BB71CCE305}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31125" yWindow="0" windowWidth="28800" windowHeight="15435" xr2:uid="{3E6D9D37-4378-4810-8051-FC75101D7B5C}"/>
+    <workbookView xWindow="-31128" yWindow="0" windowWidth="28800" windowHeight="15432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,11 +33,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>min x</t>
+  </si>
+  <si>
+    <t>max x</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>Test px:</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,47 +398,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD0F7E0-D57A-40A7-AC38-F65CBF3AC7F3}">
-  <dimension ref="B3:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>315</v>
+      </c>
+      <c r="C2">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3">
-        <v>634.5</v>
-      </c>
-      <c r="D3">
-        <f>0.4/634.5</f>
-        <v>6.3041765169424748E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>(B3*D3-0.4)*D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5">
-        <f>977-292</f>
-        <v>685</v>
-      </c>
-      <c r="H5">
-        <f>G5/2+292</f>
-        <v>634.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <f>0.2/0.215918</f>
-        <v>0.92627756833612762</v>
+        <v>955</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>955</v>
+      </c>
+      <c r="D5">
+        <f>0.4/H7</f>
+        <v>6.2992125984251976E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>(B5*D5-0.4)*D8</f>
+        <v>0.19999980468769074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>B3-B2</f>
+        <v>640</v>
+      </c>
+      <c r="H7">
+        <f>G7/2+B2</f>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>0.2/0.201575</f>
+        <v>0.99218653106784083</v>
       </c>
     </row>
   </sheetData>

--- a/coordinate images/solution.xlsx
+++ b/coordinate images/solution.xlsx
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2">
         <v>-0.2</v>
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="C3">
         <v>0.2</v>
@@ -445,33 +445,33 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="D5">
         <f>0.4/H7</f>
-        <v>6.2992125984251976E-4</v>
+        <v>6.2451209992193599E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>(B5*D5-0.4)*D8</f>
-        <v>0.19999980468769074</v>
+        <v>0.20000019678426709</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G7">
         <f>B3-B2</f>
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="H7">
         <f>G7/2+B2</f>
-        <v>635</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8">
-        <f>0.2/0.201575</f>
-        <v>0.99218653106784083</v>
+        <f>0.2/0.203903</f>
+        <v>0.98085854548486295</v>
       </c>
     </row>
   </sheetData>
